--- a/Успеваемость_С-ИП-21-1_Т.xlsx
+++ b/Успеваемость_С-ИП-21-1_Т.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DB506A-BCE9-AD48-B006-0DE4829D9498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1590AD-E09A-744F-A835-84BB0A69AC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
@@ -130,6 +130,24 @@
   <si>
     <t>Тест  (20)</t>
   </si>
+  <si>
+    <t>Отлично</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>Удовлетворительно</t>
+  </si>
+  <si>
+    <t>Кузнецов Андрей</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Не аттестован</t>
+  </si>
 </sst>
 </file>
 
@@ -138,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -149,11 +167,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -176,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -270,11 +296,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,7 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,7 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,7 +391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,6 +405,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1558,9 +1649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z15" sqref="Z15"/>
+    <sheetView showGridLines="0" zoomScale="167" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1645,16 +1736,16 @@
       <c r="X1" s="6">
         <v>45028</v>
       </c>
-      <c r="Y1" s="34">
+      <c r="Y1" s="31">
         <v>45034</v>
       </c>
-      <c r="Z1" s="36">
+      <c r="Z1" s="33">
         <v>45041</v>
       </c>
-      <c r="AA1" s="36">
+      <c r="AA1" s="33">
         <v>45042</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1731,16 +1822,16 @@
       <c r="X2" s="8">
         <v>15</v>
       </c>
-      <c r="Y2" s="35">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="39">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB2" s="30">
+      <c r="Y2" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB2" s="28">
         <f>SUM(M2:AA2)</f>
         <v>95</v>
       </c>
@@ -1818,16 +1909,16 @@
       <c r="X3" s="8">
         <v>-10</v>
       </c>
-      <c r="Y3" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z3" s="39">
-        <v>10</v>
-      </c>
-      <c r="AA3" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB3" s="30">
+      <c r="Y3" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z3" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB3" s="28">
         <f t="shared" ref="AB3:AB19" si="0">SUM(M3:AA3)</f>
         <v>45</v>
       </c>
@@ -1905,16 +1996,16 @@
       <c r="X4" s="8">
         <v>15</v>
       </c>
-      <c r="Y4" s="35">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="39">
+      <c r="Y4" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="36">
         <v>-15</v>
       </c>
-      <c r="AA4" s="37">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="30">
+      <c r="AA4" s="34">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="28">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
@@ -1992,16 +2083,16 @@
       <c r="X5" s="8">
         <v>15</v>
       </c>
-      <c r="Y5" s="35">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="39">
+      <c r="Y5" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="36">
         <v>-15</v>
       </c>
-      <c r="AA5" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB5" s="30">
+      <c r="AA5" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB5" s="28">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
@@ -2079,17 +2170,17 @@
       <c r="X6" s="8">
         <v>15</v>
       </c>
-      <c r="Y6" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z6" s="37">
+      <c r="Y6" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z6" s="34">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="AA6" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB6" s="30">
+      <c r="AA6" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB6" s="28">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
@@ -2167,16 +2258,16 @@
       <c r="X7" s="8">
         <v>-10</v>
       </c>
-      <c r="Y7" s="35">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="39">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB7" s="30">
+      <c r="Y7" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB7" s="28">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -2254,16 +2345,16 @@
       <c r="X8" s="8">
         <v>-10</v>
       </c>
-      <c r="Y8" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z8" s="39">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB8" s="30">
+      <c r="Y8" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z8" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB8" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2341,16 +2432,16 @@
       <c r="X9" s="8">
         <v>-10</v>
       </c>
-      <c r="Y9" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z9" s="39">
+      <c r="Y9" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z9" s="36">
         <v>-15</v>
       </c>
-      <c r="AA9" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB9" s="30">
+      <c r="AA9" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB9" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2428,16 +2519,16 @@
       <c r="X10" s="8">
         <v>-10</v>
       </c>
-      <c r="Y10" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z10" s="39">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="37">
-        <v>15</v>
-      </c>
-      <c r="AB10" s="30">
+      <c r="Y10" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z10" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="34">
+        <v>15</v>
+      </c>
+      <c r="AB10" s="28">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -2515,16 +2606,16 @@
       <c r="X11" s="8">
         <v>-10</v>
       </c>
-      <c r="Y11" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z11" s="39">
+      <c r="Y11" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z11" s="36">
         <v>-15</v>
       </c>
-      <c r="AA11" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB11" s="30">
+      <c r="AA11" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB11" s="28">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -2602,16 +2693,16 @@
       <c r="X12" s="8">
         <v>15</v>
       </c>
-      <c r="Y12" s="35">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="39">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="37">
-        <v>15</v>
-      </c>
-      <c r="AB12" s="30">
+      <c r="Y12" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="34">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="28">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
@@ -2689,16 +2780,16 @@
       <c r="X13" s="8">
         <v>-10</v>
       </c>
-      <c r="Y13" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z13" s="39">
+      <c r="Y13" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z13" s="36">
         <v>-15</v>
       </c>
-      <c r="AA13" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB13" s="30">
+      <c r="AA13" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB13" s="28">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
@@ -2776,16 +2867,16 @@
       <c r="X14" s="8">
         <v>15</v>
       </c>
-      <c r="Y14" s="35">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="39">
+      <c r="Y14" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="36">
         <v>-15</v>
       </c>
-      <c r="AA14" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB14" s="30">
+      <c r="AA14" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB14" s="28">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
@@ -2863,16 +2954,16 @@
       <c r="X15" s="8">
         <v>-10</v>
       </c>
-      <c r="Y15" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z15" s="39">
+      <c r="Y15" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z15" s="36">
         <v>-15</v>
       </c>
-      <c r="AA15" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB15" s="30">
+      <c r="AA15" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB15" s="28">
         <f t="shared" si="0"/>
         <v>-180</v>
       </c>
@@ -2950,16 +3041,16 @@
       <c r="X16" s="8">
         <v>15</v>
       </c>
-      <c r="Y16" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z16" s="39">
+      <c r="Y16" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z16" s="36">
         <v>-15</v>
       </c>
-      <c r="AA16" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB16" s="30">
+      <c r="AA16" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB16" s="28">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -3037,16 +3128,16 @@
       <c r="X17" s="8">
         <v>15</v>
       </c>
-      <c r="Y17" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z17" s="39">
-        <v>10</v>
-      </c>
-      <c r="AA17" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB17" s="30">
+      <c r="Y17" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z17" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB17" s="28">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -3124,16 +3215,16 @@
       <c r="X18" s="8">
         <v>15</v>
       </c>
-      <c r="Y18" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z18" s="39">
+      <c r="Y18" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z18" s="36">
         <v>-15</v>
       </c>
-      <c r="AA18" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB18" s="30">
+      <c r="AA18" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB18" s="28">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -3211,16 +3302,16 @@
       <c r="X19" s="8">
         <v>15</v>
       </c>
-      <c r="Y19" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Z19" s="39">
+      <c r="Y19" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z19" s="36">
         <v>-15</v>
       </c>
-      <c r="AA19" s="37">
-        <v>-10</v>
-      </c>
-      <c r="AB19" s="30">
+      <c r="AA19" s="34">
+        <v>-10</v>
+      </c>
+      <c r="AB19" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -3260,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="186" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3276,11 +3367,12 @@
     <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3299,658 +3391,727 @@
       <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>6</v>
       </c>
-      <c r="D2" s="20">
-        <v>16</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="19">
+        <v>16</v>
+      </c>
+      <c r="E2" s="19">
         <v>8</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18">
         <v>13</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="17">
+      <c r="I2" s="18"/>
+      <c r="J2" s="38">
         <f>SUM(C2:I2)</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>6</v>
       </c>
-      <c r="D3" s="20">
-        <v>16</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="D3" s="19">
+        <v>16</v>
+      </c>
+      <c r="E3" s="19">
         <v>8</v>
       </c>
-      <c r="F3" s="19">
-        <v>16</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19">
-        <v>15</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="17">
+      <c r="F3" s="18">
+        <v>16</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18">
+        <v>15</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="38">
         <f t="shared" ref="J3:J19" si="0">SUM(C3:I3)</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>6</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20">
+      <c r="D4" s="18">
         <v>8</v>
       </c>
-      <c r="F4" s="19">
-        <v>16</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19">
-        <v>16</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="17">
+      <c r="E4" s="19">
+        <v>8</v>
+      </c>
+      <c r="F4" s="18">
+        <v>16</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18">
+        <v>16</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="38">
+        <v>76</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19">
+        <v>16</v>
+      </c>
+      <c r="E5" s="19">
+        <v>8</v>
+      </c>
+      <c r="F5" s="18">
+        <v>16</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <v>18</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="38">
+        <v>61</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="18">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18">
+        <v>16</v>
+      </c>
+      <c r="E6" s="18">
+        <v>16</v>
+      </c>
+      <c r="F6" s="18">
+        <v>16</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <v>15</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="38">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20">
-        <v>16</v>
-      </c>
-      <c r="E5" s="20">
-        <v>8</v>
-      </c>
-      <c r="F5" s="19">
-        <v>16</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19">
-        <v>18</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="17">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19">
-        <v>16</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19">
-        <v>16</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19">
-        <v>15</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="17">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20">
-        <v>16</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19">
+        <v>16</v>
+      </c>
+      <c r="E7" s="19">
         <v>8</v>
       </c>
-      <c r="F7" s="19">
-        <v>16</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="F7" s="18">
+        <v>16</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18">
         <v>18</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="17">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="18"/>
+      <c r="J7" s="38">
+        <v>76</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20">
-        <v>16</v>
-      </c>
-      <c r="D8" s="20">
-        <v>16</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="C8" s="19">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19">
+        <v>16</v>
+      </c>
+      <c r="E8" s="19">
         <v>8</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18">
         <v>18</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>20</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="38">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>8</v>
       </c>
-      <c r="D9" s="20">
-        <v>16</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="D9" s="19">
+        <v>16</v>
+      </c>
+      <c r="E9" s="19">
         <v>8</v>
       </c>
-      <c r="F9" s="20">
-        <v>16</v>
-      </c>
-      <c r="G9" s="19">
-        <v>16</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="F9" s="19">
+        <v>16</v>
+      </c>
+      <c r="G9" s="18">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18">
         <v>19</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="17">
+      <c r="I9" s="18"/>
+      <c r="J9" s="38">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>8</v>
       </c>
-      <c r="D10" s="20">
-        <v>16</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="19">
+        <v>16</v>
+      </c>
+      <c r="E10" s="19">
         <v>8</v>
       </c>
-      <c r="F10" s="19">
-        <v>16</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19">
-        <v>15</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="17">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="18">
+        <v>16</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18">
+        <v>19</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="38">
+        <v>76</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="20">
-        <v>16</v>
-      </c>
-      <c r="D11" s="20">
-        <v>16</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="B11" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="19">
+        <v>16</v>
+      </c>
+      <c r="D11" s="19">
+        <v>16</v>
+      </c>
+      <c r="E11" s="19">
         <v>8</v>
       </c>
-      <c r="F11" s="20">
-        <v>16</v>
-      </c>
-      <c r="G11" s="19">
-        <v>16</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="F11" s="19">
+        <v>16</v>
+      </c>
+      <c r="G11" s="18">
+        <v>16</v>
+      </c>
+      <c r="H11" s="18">
         <v>19</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="17">
+      <c r="I11" s="18"/>
+      <c r="J11" s="38">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="B12" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="19">
         <v>8</v>
       </c>
-      <c r="D12" s="20">
-        <v>16</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="19">
+        <v>16</v>
+      </c>
+      <c r="E12" s="19">
         <v>8</v>
       </c>
-      <c r="F12" s="19">
-        <v>16</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19">
-        <v>16</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="17">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="18">
+        <v>16</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18">
+        <v>16</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="38">
+        <v>76</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>8</v>
       </c>
-      <c r="D13" s="19">
-        <v>16</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="D13" s="18">
+        <v>16</v>
+      </c>
+      <c r="E13" s="19">
         <v>8</v>
       </c>
-      <c r="F13" s="20">
-        <v>16</v>
-      </c>
-      <c r="G13" s="19">
-        <v>16</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="F13" s="19">
+        <v>16</v>
+      </c>
+      <c r="G13" s="18">
+        <v>16</v>
+      </c>
+      <c r="H13" s="18">
         <v>17</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="17">
+      <c r="I13" s="18"/>
+      <c r="J13" s="38">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>8</v>
       </c>
-      <c r="D14" s="19">
-        <v>16</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="18">
+        <v>16</v>
+      </c>
+      <c r="E14" s="18">
         <v>8</v>
       </c>
-      <c r="F14" s="19">
-        <v>16</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19">
+      <c r="F14" s="18">
+        <v>16</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
         <v>13</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="17">
+      <c r="I14" s="18"/>
+      <c r="J14" s="38">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>6</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="17">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="K15" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="24">
-        <v>16</v>
-      </c>
-      <c r="D16" s="24">
-        <v>16</v>
-      </c>
-      <c r="E16" s="24">
-        <v>16</v>
-      </c>
-      <c r="F16" s="24">
-        <v>16</v>
-      </c>
-      <c r="G16" s="25">
-        <v>16</v>
-      </c>
-      <c r="H16" s="25">
+      <c r="C16" s="22">
+        <v>16</v>
+      </c>
+      <c r="D16" s="22">
+        <v>16</v>
+      </c>
+      <c r="E16" s="22">
+        <v>16</v>
+      </c>
+      <c r="F16" s="22">
+        <v>16</v>
+      </c>
+      <c r="G16" s="23">
+        <v>16</v>
+      </c>
+      <c r="H16" s="23">
         <v>17</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="22">
+      <c r="I16" s="23"/>
+      <c r="J16" s="39">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
+      <c r="K16" s="28" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
-        <v>16</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="32">
-        <v>16</v>
-      </c>
-      <c r="D17" s="32">
-        <v>16</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="C17" s="29">
+        <v>16</v>
+      </c>
+      <c r="D17" s="29">
+        <v>16</v>
+      </c>
+      <c r="E17" s="30">
         <v>8</v>
       </c>
-      <c r="F17" s="32">
-        <v>16</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33">
-        <v>16</v>
-      </c>
-      <c r="I17" s="33">
+      <c r="F17" s="29">
+        <v>16</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30">
+        <v>16</v>
+      </c>
+      <c r="I17" s="30">
         <v>20</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="28">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
+      <c r="K17" s="28" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+      <c r="A18" s="28">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="32">
-        <v>16</v>
-      </c>
-      <c r="D18" s="32">
-        <v>16</v>
-      </c>
-      <c r="E18" s="32">
-        <v>16</v>
-      </c>
-      <c r="F18" s="32">
-        <v>16</v>
-      </c>
-      <c r="G18" s="33">
-        <v>16</v>
-      </c>
-      <c r="H18" s="33">
+      <c r="C18" s="29">
+        <v>16</v>
+      </c>
+      <c r="D18" s="29">
+        <v>16</v>
+      </c>
+      <c r="E18" s="29">
+        <v>16</v>
+      </c>
+      <c r="F18" s="29">
+        <v>16</v>
+      </c>
+      <c r="G18" s="30">
+        <v>16</v>
+      </c>
+      <c r="H18" s="30">
         <v>18</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="30">
+      <c r="I18" s="30"/>
+      <c r="J18" s="28">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
+      <c r="K18" s="28" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="A19" s="28">
         <v>18</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="29">
         <v>6</v>
       </c>
-      <c r="D19" s="32">
-        <v>16</v>
-      </c>
-      <c r="E19" s="33">
+      <c r="D19" s="29">
+        <v>16</v>
+      </c>
+      <c r="E19" s="30">
         <v>8</v>
       </c>
-      <c r="F19" s="32">
-        <v>16</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33">
-        <v>16</v>
-      </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="30">
+      <c r="F19" s="29">
+        <v>16</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30">
+        <v>16</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="28">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
+      <c r="K19" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="A20" s="40">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30">
+        <v>16</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30">
+        <v>16</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="28"/>
+      <c r="J20" s="28">
+        <f>SUM(C20:I20)</f>
+        <v>32</v>
+      </c>
+      <c r="K20" s="41"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="28"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="28"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="28"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="28"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="28"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="28"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Успеваемость_С-ИП-21-1_Т.xlsx
+++ b/Успеваемость_С-ИП-21-1_Т.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1590AD-E09A-744F-A835-84BB0A69AC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C932C71-0E79-944B-961F-25FFD212A100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3352,7 +3352,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3423,18 +3423,19 @@
       <c r="E2" s="19">
         <v>8</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="18">
+        <v>16</v>
+      </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18">
         <v>13</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="38">
-        <f>SUM(C2:I2)</f>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
